--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224120.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220120.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 09:41:57</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 11:01:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220120.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223820.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 11:01:32</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 11:38:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223820.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225320.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 11:38:45</t>
+    <t>Informação extraída do SIGBM: 20/12/2022 - 11:53:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225320.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220321.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 20/12/2022 - 11:53:50</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 12:03:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220321.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222421.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 12:03:13</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 12:24:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222421.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223421.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 12:24:52</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 12:34:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223421.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224321.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 12:34:21</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 12:43:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224321.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225121.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 12:43:02</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 12:51:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225121.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220121.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 12:51:49</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 01:01:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220121.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222421.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 01:01:00</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 01:24:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222421.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223821.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 01:24:19</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 01:38:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223821.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224721.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 01:38:35</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 01:47:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224721.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225521.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 01:47:11</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 01:55:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225521.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220921.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 01:55:44</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 02:09:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220921.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222621.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 02:09:56</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 02:26:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222621.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223521.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 02:26:00</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 02:35:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223521.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224321.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 02:35:21</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 02:43:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224321.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225221.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 02:43:58</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 02:52:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225221.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220221.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 02:52:50</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 03:02:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220221.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222621.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 03:02:18</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 03:26:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222621.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223921.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 03:26:20</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 03:39:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223921.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224821.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 03:39:17</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 03:48:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224821.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225621.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 03:48:56</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 03:56:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225621.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221121.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 03:56:48</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 04:11:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221121.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222421.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 04:11:22</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 04:24:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222421.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223321.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 04:24:54</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 04:33:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223321.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224221.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 04:33:51</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 04:42:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224221.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225121.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 04:42:27</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 04:51:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225121.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225921.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 04:51:03</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 04:59:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225921.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222221.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 04:59:49</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 05:22:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222221.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223721.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 05:22:10</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 05:37:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223721.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224621.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 05:37:29</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 05:46:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224621.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225521.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 05:46:36</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 05:55:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225521.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220921.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 05:55:08</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 06:09:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220921.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222521.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 06:09:09</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 06:25:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222521.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223421.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 06:25:29</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 06:34:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223421.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224321.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 06:34:48</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 06:43:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224321.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225221.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 06:43:35</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 06:52:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225221.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220121.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 06:52:45</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 07:01:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220121.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222221.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 07:01:28</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 07:22:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222221.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223521.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 07:22:42</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 07:35:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223521.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224421.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 07:35:40</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 07:44:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224421.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225321.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 07:44:52</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 07:53:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225321.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220221.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 07:53:34</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 08:02:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220221.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221921.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 08:02:03</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 08:19:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221921.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222821.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 08:19:15</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 08:28:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222821.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223621.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 08:28:02</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 08:36:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223621.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224521.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 08:36:40</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 08:45:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224521.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225521.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 08:45:54</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 08:55:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225521.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221121.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 08:55:02</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 09:11:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221121.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224721.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 09:11:03</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 09:47:34</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -44518,7 +44518,7 @@
         <v>33</v>
       </c>
       <c r="S516" s="0" t="s">
-        <v>148</v>
+        <v>617</v>
       </c>
       <c r="T516" s="0" t="s">
         <v>34</v>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224721.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220721.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 09:47:34</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 10:07:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220721.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223021.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 10:07:42</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 10:30:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223021.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223921.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 10:30:20</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 10:39:59</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -22498,7 +22498,7 @@
         <v>48</v>
       </c>
       <c r="R159" s="0" t="s">
-        <v>33</v>
+        <v>308</v>
       </c>
       <c r="S159" s="0" t="s">
         <v>148</v>
@@ -22622,7 +22622,7 @@
         <v>48</v>
       </c>
       <c r="R161" s="0" t="s">
-        <v>33</v>
+        <v>308</v>
       </c>
       <c r="S161" s="0" t="s">
         <v>148</v>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223921.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224821.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 10:39:59</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 10:48:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224821.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225721.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 10:48:41</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 10:57:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225721.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221221.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 10:57:29</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 11:12:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221221.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222721.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 11:12:17</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 11:27:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222721.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223721.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 11:27:55</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 11:37:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223721.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224621.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 11:37:35</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 11:46:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224621.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225421.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 11:46:19</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 11:54:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225421.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220821.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 11:54:55</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 12:08:06</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -42121,13 +42121,13 @@
         <v>44</v>
       </c>
       <c r="N477" s="0" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="O477" s="0" t="s">
         <v>46</v>
       </c>
       <c r="P477" s="0" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="Q477" s="0" t="s">
         <v>48</v>
@@ -44993,7 +44993,7 @@
         <v>46</v>
       </c>
       <c r="P524" s="0" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="Q524" s="0" t="s">
         <v>48</v>
@@ -55420,7 +55420,7 @@
         <v>48</v>
       </c>
       <c r="R693" s="0" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="S693" s="0" t="s">
         <v>34</v>
@@ -55482,7 +55482,7 @@
         <v>48</v>
       </c>
       <c r="R694" s="0" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="S694" s="0" t="s">
         <v>34</v>
@@ -55544,7 +55544,7 @@
         <v>48</v>
       </c>
       <c r="R695" s="0" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="S695" s="0" t="s">
         <v>34</v>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220821.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222721.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 12:08:06</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 12:27:36</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -15430,13 +15430,13 @@
         <v>147</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O45" s="0" t="s">
         <v>46</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="Q45" s="0" t="s">
         <v>48</v>
@@ -20703,7 +20703,7 @@
         <v>48</v>
       </c>
       <c r="R130" s="0" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="S130" s="0" t="s">
         <v>34</v>
@@ -22176,7 +22176,7 @@
         <v>85</v>
       </c>
       <c r="N154" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O154" s="0" t="s">
         <v>45</v>
@@ -22424,7 +22424,7 @@
         <v>85</v>
       </c>
       <c r="N158" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O158" s="0" t="s">
         <v>45</v>
@@ -25093,7 +25093,7 @@
         <v>48</v>
       </c>
       <c r="R201" s="0" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="S201" s="0" t="s">
         <v>34</v>
@@ -25831,7 +25831,7 @@
         <v>48</v>
       </c>
       <c r="R213" s="0" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="S213" s="0" t="s">
         <v>34</v>
@@ -26141,7 +26141,7 @@
         <v>48</v>
       </c>
       <c r="R218" s="0" t="s">
-        <v>308</v>
+        <v>154</v>
       </c>
       <c r="S218" s="0" t="s">
         <v>148</v>
@@ -26265,7 +26265,7 @@
         <v>48</v>
       </c>
       <c r="R220" s="0" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="S220" s="0" t="s">
         <v>34</v>
@@ -26687,7 +26687,7 @@
         <v>44</v>
       </c>
       <c r="N227" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O227" s="0" t="s">
         <v>45</v>
@@ -31520,7 +31520,7 @@
         <v>45</v>
       </c>
       <c r="P305" s="0" t="s">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="Q305" s="0" t="s">
         <v>48</v>
@@ -36438,13 +36438,13 @@
         <v>44</v>
       </c>
       <c r="N385" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O385" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P385" s="0" t="s">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="Q385" s="0" t="s">
         <v>48</v>
@@ -37554,7 +37554,7 @@
         <v>85</v>
       </c>
       <c r="N403" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O403" s="0" t="s">
         <v>45</v>
@@ -39467,13 +39467,13 @@
         <v>44</v>
       </c>
       <c r="N434" s="0" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="O434" s="0" t="s">
         <v>46</v>
       </c>
       <c r="P434" s="0" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="Q434" s="0" t="s">
         <v>48</v>
@@ -41008,13 +41008,13 @@
         <v>85</v>
       </c>
       <c r="N459" s="0" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="O459" s="0" t="s">
         <v>46</v>
       </c>
       <c r="P459" s="0" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="Q459" s="0" t="s">
         <v>48</v>
@@ -41256,13 +41256,13 @@
         <v>226</v>
       </c>
       <c r="N463" s="0" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="O463" s="0" t="s">
         <v>46</v>
       </c>
       <c r="P463" s="0" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="Q463" s="0" t="s">
         <v>48</v>
@@ -49117,7 +49117,7 @@
         <v>48</v>
       </c>
       <c r="R591" s="0" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="S591" s="0" t="s">
         <v>34</v>
@@ -52506,13 +52506,13 @@
         <v>44</v>
       </c>
       <c r="N646" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O646" s="0" t="s">
         <v>46</v>
       </c>
       <c r="P646" s="0" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="Q646" s="0" t="s">
         <v>48</v>
@@ -52568,7 +52568,7 @@
         <v>147</v>
       </c>
       <c r="N647" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O647" s="0" t="s">
         <v>46</v>
@@ -66485,7 +66485,7 @@
         <v>48</v>
       </c>
       <c r="R872" s="0" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="S872" s="0" t="s">
         <v>34</v>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222721.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224021.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 12:27:36</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 12:40:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224021.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224821.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 12:40:15</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 12:48:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224821.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225721.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 12:48:56</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 12:57:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225721.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221721.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 12:57:20</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 01:17:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221721.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224221.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 01:17:50</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 01:42:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224221.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225421.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 01:42:33</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 01:54:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225421.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220521.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 01:54:52</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 02:05:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220521.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222321.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 02:05:52</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 02:23:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222321.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223221.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 02:23:17</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 02:32:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223221.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224021.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 02:32:08</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 02:40:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224021.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225021.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 02:40:41</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 02:50:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225021.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225821.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 02:50:22</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 02:58:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225821.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221821.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 02:58:37</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 03:18:11</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -22176,7 +22176,7 @@
         <v>85</v>
       </c>
       <c r="N154" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O154" s="0" t="s">
         <v>45</v>
@@ -22424,7 +22424,7 @@
         <v>85</v>
       </c>
       <c r="N158" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O158" s="0" t="s">
         <v>45</v>
@@ -26687,7 +26687,7 @@
         <v>44</v>
       </c>
       <c r="N227" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O227" s="0" t="s">
         <v>45</v>
@@ -37554,7 +37554,7 @@
         <v>85</v>
       </c>
       <c r="N403" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O403" s="0" t="s">
         <v>45</v>
@@ -52568,7 +52568,7 @@
         <v>147</v>
       </c>
       <c r="N647" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O647" s="0" t="s">
         <v>46</v>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221821.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223421.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 03:18:11</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 03:34:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223421.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224621.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 03:34:26</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 03:46:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224621.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225521.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 03:46:05</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 03:55:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225521.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220321.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 03:55:02</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 04:03:34</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -47375,7 +47375,7 @@
         <v>2704</v>
       </c>
       <c r="M563" s="0" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N563" s="0" t="s">
         <v>31</v>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220321.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221821.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 04:03:34</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 04:18:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221821.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222821.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 04:18:52</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 04:28:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222821.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223721.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 04:28:17</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 04:37:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223721.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224621.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 04:37:29</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 04:46:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224621.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225521.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 04:46:19</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 04:55:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225521.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220921.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 04:55:20</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 05:09:51</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -26129,7 +26129,7 @@
         <v>147</v>
       </c>
       <c r="N218" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O218" s="0" t="s">
         <v>46</v>
@@ -26141,7 +26141,7 @@
         <v>48</v>
       </c>
       <c r="R218" s="0" t="s">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="S218" s="0" t="s">
         <v>148</v>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220921.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222621.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 05:09:51</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 05:26:47</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -26135,7 +26135,7 @@
         <v>46</v>
       </c>
       <c r="P218" s="0" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="Q218" s="0" t="s">
         <v>48</v>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222621.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223621.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 05:26:47</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 05:36:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223621.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224421.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 05:36:25</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 05:44:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224421.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225321.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 05:44:54</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 05:53:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225321.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220221.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 05:53:26</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 06:02:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220221.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222121.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 06:02:51</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 06:21:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222121.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223021.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 06:21:13</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 06:30:08</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -1307,7 +1307,7 @@
     <t>ITAITUBA</t>
   </si>
   <si>
-    <t>105.747,00</t>
+    <t>110.997,00</t>
   </si>
   <si>
     <t>-19°47'01.777"</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223021.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223821.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 06:30:08</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 06:38:39</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -1958,7 +1958,7 @@
     <t>-55°47'04.200"</t>
   </si>
   <si>
-    <t>41.125,00</t>
+    <t>32.750,00</t>
   </si>
   <si>
     <t>BACIA DE REJEITOS BOM JARDIM</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223821.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224721.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 06:38:39</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 06:47:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224721.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225621.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 06:47:34</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 06:56:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225621.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221021.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 06:56:38</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 07:10:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221021.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222721.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 07:10:51</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 07:27:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222721.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223621.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 07:27:11</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 07:36:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223621.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224521.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 07:36:56</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 07:45:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224521.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225421.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 07:45:56</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 07:54:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225421.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220321.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 07:54:12</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 08:03:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220321.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222421.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 08:03:16</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 08:24:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222421.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223321.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 08:24:57</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 08:33:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223321.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224221.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 08:33:55</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 08:42:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224221.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225121.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 08:42:32</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 08:51:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-21.xlsx
+++ b/sigbm_download_2022-12-21.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225121.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220021.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 08:51:25</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 09:00:16</t>
   </si>
   <si>
     <t>ID Barragem</t>
